--- a/web/report1_20-09-2019.xlsx
+++ b/web/report1_20-09-2019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Сводный отчет по результатам по состоянию на 20-09-2019</t>
   </si>
@@ -50,6 +50,12 @@
     <t>Последнее событие</t>
   </si>
   <si>
+    <t>Аналитик</t>
+  </si>
+  <si>
+    <t>Технолог</t>
+  </si>
+  <si>
     <t>18632, BR15462 Часть 1. Доработка кросс-кассового решения для универсальных ТП</t>
   </si>
   <si>
@@ -71,6 +77,24 @@
     <t xml:space="preserve">Передано  в разработку </t>
   </si>
   <si>
+    <t>Трифонова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прокопьева </t>
+  </si>
+  <si>
+    <t>18854, BR15462 Часть 3. Реализация целевого кросс-кассового решения ЦАБС/М-Банк – Спектрум. Наличные операции ЮЛ</t>
+  </si>
+  <si>
+    <t>29-07-2019</t>
+  </si>
+  <si>
+    <t>Задача передана в разработку до согласования ТЗ</t>
+  </si>
+  <si>
+    <t>Кучинский</t>
+  </si>
+  <si>
     <t>18998, BR15462 Часть 4. Реализация доработок по выдаче чековых книжек для кросс-кассового решения ЦАБС,М-Банк,Спектрум</t>
   </si>
   <si>
@@ -86,10 +110,16 @@
     <t>Иницирована разработка ТЗ</t>
   </si>
   <si>
+    <t>Розанова</t>
+  </si>
+  <si>
     <t>18867, BR15462 Часть 2. Работа с ценностями (векселя, ценности на хранение и т.д.).</t>
   </si>
   <si>
     <t>09-07-2019</t>
+  </si>
+  <si>
+    <t>Харюков</t>
   </si>
 </sst>
 </file>
@@ -457,15 +487,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:J7"/>
+      <selection activeCell="A3" sqref="A3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="80" customWidth="true" style="0"/>
+    <col min="1" max="1" width="70" customWidth="true" style="0"/>
     <col min="2" max="2" width="20" customWidth="true" style="0"/>
     <col min="3" max="3" width="12" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
@@ -475,14 +505,16 @@
     <col min="8" max="8" width="15" customWidth="true" style="0"/>
     <col min="9" max="9" width="12" customWidth="true" style="0"/>
     <col min="10" max="10" width="30" customWidth="true" style="0"/>
+    <col min="11" max="11" width="20" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,28 +545,34 @@
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -543,84 +581,142 @@
         <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>66</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
         <v>73</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
